--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4795,6 +4795,35 @@
         <v>11.514</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B151" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C151" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D151" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E151" t="n">
+        <v>11.889</v>
+      </c>
+      <c r="F151" t="n">
+        <v>11.946</v>
+      </c>
+      <c r="G151" t="n">
+        <v>11.857</v>
+      </c>
+      <c r="H151" t="n">
+        <v>11.844</v>
+      </c>
+      <c r="I151" t="n">
+        <v>12.171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -4809,19 +4809,19 @@
         <v>12.05</v>
       </c>
       <c r="E151" t="n">
-        <v>11.889</v>
+        <v>11.439</v>
       </c>
       <c r="F151" t="n">
-        <v>11.946</v>
+        <v>11.682</v>
       </c>
       <c r="G151" t="n">
-        <v>11.857</v>
+        <v>11.606</v>
       </c>
       <c r="H151" t="n">
-        <v>11.844</v>
+        <v>11.584</v>
       </c>
       <c r="I151" t="n">
-        <v>12.171</v>
+        <v>11.897</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4824,6 +4824,35 @@
         <v>11.897</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B152" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C152" t="n">
+        <v>11.85</v>
+      </c>
+      <c r="D152" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E152" t="n">
+        <v>12.245</v>
+      </c>
+      <c r="F152" t="n">
+        <v>12.123</v>
+      </c>
+      <c r="G152" t="n">
+        <v>12.134</v>
+      </c>
+      <c r="H152" t="n">
+        <v>12.595</v>
+      </c>
+      <c r="I152" t="n">
+        <v>12.504</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4838,19 +4838,48 @@
         <v>12.05</v>
       </c>
       <c r="E152" t="n">
-        <v>12.245</v>
+        <v>11.947</v>
       </c>
       <c r="F152" t="n">
-        <v>12.123</v>
+        <v>11.848</v>
       </c>
       <c r="G152" t="n">
+        <v>11.859</v>
+      </c>
+      <c r="H152" t="n">
+        <v>12.295</v>
+      </c>
+      <c r="I152" t="n">
+        <v>12.211</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B153" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C153" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="D153" t="n">
+        <v>13</v>
+      </c>
+      <c r="E153" t="n">
+        <v>12.306</v>
+      </c>
+      <c r="F153" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="G153" t="n">
         <v>12.134</v>
       </c>
-      <c r="H152" t="n">
-        <v>12.595</v>
-      </c>
-      <c r="I152" t="n">
-        <v>12.504</v>
+      <c r="H153" t="n">
+        <v>12.604</v>
+      </c>
+      <c r="I153" t="n">
+        <v>12.512</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -4867,19 +4867,19 @@
         <v>13</v>
       </c>
       <c r="E153" t="n">
-        <v>12.306</v>
+        <v>12.005</v>
       </c>
       <c r="F153" t="n">
-        <v>12.17</v>
+        <v>11.892</v>
       </c>
       <c r="G153" t="n">
-        <v>12.134</v>
+        <v>11.858</v>
       </c>
       <c r="H153" t="n">
-        <v>12.604</v>
+        <v>12.303</v>
       </c>
       <c r="I153" t="n">
-        <v>12.512</v>
+        <v>12.219</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4882,6 +4882,35 @@
         <v>12.219</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44666</v>
+      </c>
+      <c r="B154" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C154" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="D154" t="n">
+        <v>13</v>
+      </c>
+      <c r="E154" t="n">
+        <v>12.517</v>
+      </c>
+      <c r="F154" t="n">
+        <v>12.331</v>
+      </c>
+      <c r="G154" t="n">
+        <v>12.191</v>
+      </c>
+      <c r="H154" t="n">
+        <v>12.622</v>
+      </c>
+      <c r="I154" t="n">
+        <v>12.535</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -4896,19 +4896,19 @@
         <v>13</v>
       </c>
       <c r="E154" t="n">
-        <v>12.517</v>
+        <v>12.203</v>
       </c>
       <c r="F154" t="n">
-        <v>12.331</v>
+        <v>12.044</v>
       </c>
       <c r="G154" t="n">
-        <v>12.191</v>
+        <v>11.913</v>
       </c>
       <c r="H154" t="n">
-        <v>12.622</v>
+        <v>12.32</v>
       </c>
       <c r="I154" t="n">
-        <v>12.535</v>
+        <v>12.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -4896,19 +4896,19 @@
         <v>13</v>
       </c>
       <c r="E154" t="n">
-        <v>12.203</v>
+        <v>12.517</v>
       </c>
       <c r="F154" t="n">
-        <v>12.044</v>
+        <v>12.331</v>
       </c>
       <c r="G154" t="n">
-        <v>11.913</v>
+        <v>12.191</v>
       </c>
       <c r="H154" t="n">
-        <v>12.32</v>
+        <v>12.622</v>
       </c>
       <c r="I154" t="n">
-        <v>12.24</v>
+        <v>12.535</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4911,6 +4911,35 @@
         <v>12.24</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B155" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C155" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="D155" t="n">
+        <v>13</v>
+      </c>
+      <c r="E155" t="n">
+        <v>12.505</v>
+      </c>
+      <c r="F155" t="n">
+        <v>12.328</v>
+      </c>
+      <c r="G155" t="n">
+        <v>12.255</v>
+      </c>
+      <c r="H155" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="I155" t="n">
+        <v>12.537</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -4925,19 +4925,19 @@
         <v>13</v>
       </c>
       <c r="E155" t="n">
-        <v>12.505</v>
+        <v>12.192</v>
       </c>
       <c r="F155" t="n">
-        <v>12.328</v>
+        <v>12.041</v>
       </c>
       <c r="G155" t="n">
-        <v>12.255</v>
+        <v>11.973</v>
       </c>
       <c r="H155" t="n">
-        <v>12.62</v>
+        <v>12.319</v>
       </c>
       <c r="I155" t="n">
-        <v>12.537</v>
+        <v>12.242</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4940,6 +4940,35 @@
         <v>12.242</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B156" t="n">
+        <v>14.47</v>
+      </c>
+      <c r="C156" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D156" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E156" t="n">
+        <v>12.931</v>
+      </c>
+      <c r="F156" t="n">
+        <v>12.788</v>
+      </c>
+      <c r="G156" t="n">
+        <v>12.433</v>
+      </c>
+      <c r="H156" t="n">
+        <v>12.678</v>
+      </c>
+      <c r="I156" t="n">
+        <v>12.605</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -4957,13 +4957,13 @@
         <v>12.931</v>
       </c>
       <c r="F156" t="n">
-        <v>12.788</v>
+        <v>12.476</v>
       </c>
       <c r="G156" t="n">
         <v>12.433</v>
       </c>
       <c r="H156" t="n">
-        <v>12.678</v>
+        <v>12.373</v>
       </c>
       <c r="I156" t="n">
         <v>12.605</v>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -4954,7 +4954,7 @@
         <v>14.7</v>
       </c>
       <c r="E156" t="n">
-        <v>12.931</v>
+        <v>12.593</v>
       </c>
       <c r="F156" t="n">
         <v>12.476</v>
@@ -4966,7 +4966,7 @@
         <v>12.373</v>
       </c>
       <c r="I156" t="n">
-        <v>12.605</v>
+        <v>12.307</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -4960,7 +4960,7 @@
         <v>12.476</v>
       </c>
       <c r="G156" t="n">
-        <v>12.433</v>
+        <v>12.141</v>
       </c>
       <c r="H156" t="n">
         <v>12.373</v>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4969,6 +4969,35 @@
         <v>12.307</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B157" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C157" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D157" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E157" t="n">
+        <v>13.287</v>
+      </c>
+      <c r="F157" t="n">
+        <v>13.028</v>
+      </c>
+      <c r="G157" t="n">
+        <v>13.151</v>
+      </c>
+      <c r="H157" t="n">
+        <v>13.488</v>
+      </c>
+      <c r="I157" t="n">
+        <v>13.429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -4983,19 +4983,19 @@
         <v>14.6</v>
       </c>
       <c r="E157" t="n">
-        <v>13.287</v>
+        <v>12.927</v>
       </c>
       <c r="F157" t="n">
-        <v>13.028</v>
+        <v>12.701</v>
       </c>
       <c r="G157" t="n">
-        <v>13.151</v>
+        <v>12.818</v>
       </c>
       <c r="H157" t="n">
-        <v>13.488</v>
+        <v>13.135</v>
       </c>
       <c r="I157" t="n">
-        <v>13.429</v>
+        <v>13.082</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4998,6 +4998,35 @@
         <v>13.082</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B158" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C158" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="D158" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E158" t="n">
+        <v>13.662</v>
+      </c>
+      <c r="F158" t="n">
+        <v>13.243</v>
+      </c>
+      <c r="G158" t="n">
+        <v>13.222</v>
+      </c>
+      <c r="H158" t="n">
+        <v>13.554</v>
+      </c>
+      <c r="I158" t="n">
+        <v>13.492</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5012,19 +5012,48 @@
         <v>14.7</v>
       </c>
       <c r="E158" t="n">
-        <v>13.662</v>
+        <v>13.279</v>
       </c>
       <c r="F158" t="n">
-        <v>13.243</v>
+        <v>12.905</v>
       </c>
       <c r="G158" t="n">
-        <v>13.222</v>
+        <v>12.885</v>
       </c>
       <c r="H158" t="n">
-        <v>13.554</v>
+        <v>13.198</v>
       </c>
       <c r="I158" t="n">
-        <v>13.492</v>
+        <v>13.141</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B159" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C159" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="D159" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E159" t="n">
+        <v>13.732</v>
+      </c>
+      <c r="F159" t="n">
+        <v>13.292</v>
+      </c>
+      <c r="G159" t="n">
+        <v>13.295</v>
+      </c>
+      <c r="H159" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="I159" t="n">
+        <v>13.556</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -5041,19 +5041,19 @@
         <v>14.8</v>
       </c>
       <c r="E159" t="n">
-        <v>13.732</v>
+        <v>13.345</v>
       </c>
       <c r="F159" t="n">
-        <v>13.292</v>
+        <v>12.95</v>
       </c>
       <c r="G159" t="n">
-        <v>13.295</v>
+        <v>12.953</v>
       </c>
       <c r="H159" t="n">
-        <v>13.62</v>
+        <v>13.259</v>
       </c>
       <c r="I159" t="n">
-        <v>13.556</v>
+        <v>13.201</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5056,6 +5056,35 @@
         <v>13.201</v>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B160" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C160" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D160" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>13.634</v>
+      </c>
+      <c r="F160" t="n">
+        <v>13.184</v>
+      </c>
+      <c r="G160" t="n">
+        <v>13.192</v>
+      </c>
+      <c r="H160" t="n">
+        <v>13.616</v>
+      </c>
+      <c r="I160" t="n">
+        <v>13.538</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -5070,19 +5070,19 @@
         <v>15.2</v>
       </c>
       <c r="E160" t="n">
-        <v>13.634</v>
+        <v>13.253</v>
       </c>
       <c r="F160" t="n">
-        <v>13.184</v>
+        <v>12.849</v>
       </c>
       <c r="G160" t="n">
-        <v>13.192</v>
+        <v>12.857</v>
       </c>
       <c r="H160" t="n">
-        <v>13.616</v>
+        <v>13.256</v>
       </c>
       <c r="I160" t="n">
-        <v>13.538</v>
+        <v>13.185</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5085,6 +5085,35 @@
         <v>13.185</v>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B161" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C161" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="D161" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="E161" t="n">
+        <v>13.962</v>
+      </c>
+      <c r="F161" t="n">
+        <v>13.333</v>
+      </c>
+      <c r="G161" t="n">
+        <v>13.328</v>
+      </c>
+      <c r="H161" t="n">
+        <v>13.821</v>
+      </c>
+      <c r="I161" t="n">
+        <v>13.741</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -5099,19 +5099,19 @@
         <v>14.75</v>
       </c>
       <c r="E161" t="n">
-        <v>13.962</v>
+        <v>13.561</v>
       </c>
       <c r="F161" t="n">
-        <v>13.333</v>
+        <v>12.99</v>
       </c>
       <c r="G161" t="n">
-        <v>13.328</v>
+        <v>12.985</v>
       </c>
       <c r="H161" t="n">
-        <v>13.821</v>
+        <v>13.449</v>
       </c>
       <c r="I161" t="n">
-        <v>13.741</v>
+        <v>13.375</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5114,6 +5114,35 @@
         <v>13.375</v>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B162" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D162" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="E162" t="n">
+        <v>13.507</v>
+      </c>
+      <c r="F162" t="n">
+        <v>12.839</v>
+      </c>
+      <c r="G162" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="H162" t="n">
+        <v>13.712</v>
+      </c>
+      <c r="I162" t="n">
+        <v>13.592</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -5128,19 +5128,19 @@
         <v>14.75</v>
       </c>
       <c r="E162" t="n">
-        <v>13.507</v>
+        <v>13.133</v>
       </c>
       <c r="F162" t="n">
-        <v>12.839</v>
+        <v>12.525</v>
       </c>
       <c r="G162" t="n">
-        <v>12.84</v>
+        <v>12.526</v>
       </c>
       <c r="H162" t="n">
-        <v>13.712</v>
+        <v>13.347</v>
       </c>
       <c r="I162" t="n">
-        <v>13.592</v>
+        <v>13.236</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5143,6 +5143,35 @@
         <v>13.236</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B163" t="n">
+        <v>15</v>
+      </c>
+      <c r="C163" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="D163" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E163" t="n">
+        <v>13.501</v>
+      </c>
+      <c r="F163" t="n">
+        <v>13.035</v>
+      </c>
+      <c r="G163" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="H163" t="n">
+        <v>13.336</v>
+      </c>
+      <c r="I163" t="n">
+        <v>13.257</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5172,6 +5172,35 @@
         <v>13.257</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B164" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C164" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="D164" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>13.901</v>
+      </c>
+      <c r="F164" t="n">
+        <v>13.337</v>
+      </c>
+      <c r="G164" t="n">
+        <v>13.237</v>
+      </c>
+      <c r="H164" t="n">
+        <v>13.705</v>
+      </c>
+      <c r="I164" t="n">
+        <v>13.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5186,19 +5186,48 @@
         <v>15.5</v>
       </c>
       <c r="E164" t="n">
-        <v>13.901</v>
+        <v>13.501</v>
       </c>
       <c r="F164" t="n">
-        <v>13.337</v>
+        <v>12.997</v>
       </c>
       <c r="G164" t="n">
-        <v>13.237</v>
+        <v>12.901</v>
       </c>
       <c r="H164" t="n">
-        <v>13.705</v>
+        <v>13.342</v>
       </c>
       <c r="I164" t="n">
-        <v>13.62</v>
+        <v>13.261</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B165" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C165" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D165" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E165" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="F165" t="n">
+        <v>13.338</v>
+      </c>
+      <c r="G165" t="n">
+        <v>13.289</v>
+      </c>
+      <c r="H165" t="n">
+        <v>13.707</v>
+      </c>
+      <c r="I165" t="n">
+        <v>13.625</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5215,19 +5215,48 @@
         <v>15.4</v>
       </c>
       <c r="E165" t="n">
-        <v>13.92</v>
+        <v>13.518</v>
       </c>
       <c r="F165" t="n">
-        <v>13.338</v>
+        <v>12.997</v>
       </c>
       <c r="G165" t="n">
-        <v>13.289</v>
+        <v>12.95</v>
       </c>
       <c r="H165" t="n">
-        <v>13.707</v>
+        <v>13.343</v>
       </c>
       <c r="I165" t="n">
-        <v>13.625</v>
+        <v>13.266</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B166" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="C166" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="D166" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E166" t="n">
+        <v>13.726</v>
+      </c>
+      <c r="F166" t="n">
+        <v>13.159</v>
+      </c>
+      <c r="G166" t="n">
+        <v>13.091</v>
+      </c>
+      <c r="H166" t="n">
+        <v>13.667</v>
+      </c>
+      <c r="I166" t="n">
+        <v>13.562</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -5244,19 +5244,19 @@
         <v>15.3</v>
       </c>
       <c r="E166" t="n">
-        <v>13.726</v>
+        <v>13.34</v>
       </c>
       <c r="F166" t="n">
-        <v>13.159</v>
+        <v>12.829</v>
       </c>
       <c r="G166" t="n">
-        <v>13.091</v>
+        <v>12.764</v>
       </c>
       <c r="H166" t="n">
-        <v>13.667</v>
+        <v>13.306</v>
       </c>
       <c r="I166" t="n">
-        <v>13.562</v>
+        <v>13.208</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5259,6 +5259,35 @@
         <v>13.208</v>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B167" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C167" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="D167" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="E167" t="n">
+        <v>13.756</v>
+      </c>
+      <c r="F167" t="n">
+        <v>13.191</v>
+      </c>
+      <c r="G167" t="n">
+        <v>13.215</v>
+      </c>
+      <c r="H167" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="I167" t="n">
+        <v>13.577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5273,19 +5273,48 @@
         <v>15.25</v>
       </c>
       <c r="E167" t="n">
-        <v>13.756</v>
+        <v>13.365</v>
       </c>
       <c r="F167" t="n">
+        <v>12.859</v>
+      </c>
+      <c r="G167" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="H167" t="n">
+        <v>13.308</v>
+      </c>
+      <c r="I167" t="n">
+        <v>13.222</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B168" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C168" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="D168" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="E168" t="n">
+        <v>13.726</v>
+      </c>
+      <c r="F168" t="n">
         <v>13.191</v>
       </c>
-      <c r="G167" t="n">
-        <v>13.215</v>
-      </c>
-      <c r="H167" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="I167" t="n">
-        <v>13.577</v>
+      <c r="G168" t="n">
+        <v>13.225</v>
+      </c>
+      <c r="H168" t="n">
+        <v>13.664</v>
+      </c>
+      <c r="I168" t="n">
+        <v>13.568</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -5302,19 +5302,19 @@
         <v>15.25</v>
       </c>
       <c r="E168" t="n">
-        <v>13.726</v>
+        <v>13.339</v>
       </c>
       <c r="F168" t="n">
-        <v>13.191</v>
+        <v>12.859</v>
       </c>
       <c r="G168" t="n">
-        <v>13.225</v>
+        <v>12.89</v>
       </c>
       <c r="H168" t="n">
-        <v>13.664</v>
+        <v>13.303</v>
       </c>
       <c r="I168" t="n">
-        <v>13.568</v>
+        <v>13.213</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5317,6 +5317,35 @@
         <v>13.213</v>
       </c>
     </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B169" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="C169" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="D169" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="E169" t="n">
+        <v>13.701</v>
+      </c>
+      <c r="F169" t="n">
+        <v>13.285</v>
+      </c>
+      <c r="G169" t="n">
+        <v>13.253</v>
+      </c>
+      <c r="H169" t="n">
+        <v>13.663</v>
+      </c>
+      <c r="I169" t="n">
+        <v>13.575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -5331,19 +5331,19 @@
         <v>15.35</v>
       </c>
       <c r="E169" t="n">
-        <v>13.701</v>
+        <v>13.314</v>
       </c>
       <c r="F169" t="n">
-        <v>13.285</v>
+        <v>12.948</v>
       </c>
       <c r="G169" t="n">
-        <v>13.253</v>
+        <v>12.917</v>
       </c>
       <c r="H169" t="n">
-        <v>13.663</v>
+        <v>13.302</v>
       </c>
       <c r="I169" t="n">
-        <v>13.575</v>
+        <v>13.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I169"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5346,6 +5346,35 @@
         <v>13.22</v>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B170" t="n">
+        <v>15</v>
+      </c>
+      <c r="C170" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="D170" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E170" t="n">
+        <v>13.706</v>
+      </c>
+      <c r="F170" t="n">
+        <v>13.267</v>
+      </c>
+      <c r="G170" t="n">
+        <v>13.247</v>
+      </c>
+      <c r="H170" t="n">
+        <v>13.662</v>
+      </c>
+      <c r="I170" t="n">
+        <v>13.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -5360,19 +5360,19 @@
         <v>15.4</v>
       </c>
       <c r="E170" t="n">
-        <v>13.706</v>
+        <v>13.318</v>
       </c>
       <c r="F170" t="n">
-        <v>13.267</v>
+        <v>12.931</v>
       </c>
       <c r="G170" t="n">
-        <v>13.247</v>
+        <v>12.911</v>
       </c>
       <c r="H170" t="n">
-        <v>13.662</v>
+        <v>13.301</v>
       </c>
       <c r="I170" t="n">
-        <v>13.57</v>
+        <v>13.215</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5375,6 +5375,35 @@
         <v>13.215</v>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B171" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="C171" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D171" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="E171" t="n">
+        <v>14.189</v>
+      </c>
+      <c r="F171" t="n">
+        <v>13.775</v>
+      </c>
+      <c r="G171" t="n">
+        <v>13.512</v>
+      </c>
+      <c r="H171" t="n">
+        <v>13.809</v>
+      </c>
+      <c r="I171" t="n">
+        <v>13.741</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -5389,19 +5389,19 @@
         <v>15.45</v>
       </c>
       <c r="E171" t="n">
-        <v>14.189</v>
+        <v>13.771</v>
       </c>
       <c r="F171" t="n">
-        <v>13.775</v>
+        <v>13.407</v>
       </c>
       <c r="G171" t="n">
-        <v>13.512</v>
+        <v>13.16</v>
       </c>
       <c r="H171" t="n">
-        <v>13.809</v>
+        <v>13.441</v>
       </c>
       <c r="I171" t="n">
-        <v>13.741</v>
+        <v>13.375</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5404,6 +5404,35 @@
         <v>13.375</v>
       </c>
     </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B172" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C172" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="D172" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E172" t="n">
+        <v>14.139</v>
+      </c>
+      <c r="F172" t="n">
+        <v>13.551</v>
+      </c>
+      <c r="G172" t="n">
+        <v>13.404</v>
+      </c>
+      <c r="H172" t="n">
+        <v>13.809</v>
+      </c>
+      <c r="I172" t="n">
+        <v>13.726</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5433,6 +5433,35 @@
         <v>13.726</v>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B173" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C173" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="D173" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="E173" t="n">
+        <v>14.382</v>
+      </c>
+      <c r="F173" t="n">
+        <v>13.734</v>
+      </c>
+      <c r="G173" t="n">
+        <v>13.576</v>
+      </c>
+      <c r="H173" t="n">
+        <v>13.949</v>
+      </c>
+      <c r="I173" t="n">
+        <v>13.87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5462,6 +5462,35 @@
         <v>13.87</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B174" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C174" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="D174" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="E174" t="n">
+        <v>14.137</v>
+      </c>
+      <c r="F174" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="G174" t="n">
+        <v>13.384</v>
+      </c>
+      <c r="H174" t="n">
+        <v>13.854</v>
+      </c>
+      <c r="I174" t="n">
+        <v>13.763</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5491,6 +5491,64 @@
         <v>13.763</v>
       </c>
     </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B175" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="C175" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="D175" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="E175" t="n">
+        <v>13.766</v>
+      </c>
+      <c r="F175" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="G175" t="n">
+        <v>13.198</v>
+      </c>
+      <c r="H175" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="I175" t="n">
+        <v>13.578</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B176" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="C176" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D176" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="E176" t="n">
+        <v>13.615</v>
+      </c>
+      <c r="F176" t="n">
+        <v>13.501</v>
+      </c>
+      <c r="G176" t="n">
+        <v>13.279</v>
+      </c>
+      <c r="H176" t="n">
+        <v>13.667</v>
+      </c>
+      <c r="I176" t="n">
+        <v>13.592</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5549,6 +5549,35 @@
         <v>13.592</v>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B177" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C177" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="D177" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="E177" t="n">
+        <v>13.564</v>
+      </c>
+      <c r="F177" t="n">
+        <v>13.585</v>
+      </c>
+      <c r="G177" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="H177" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="I177" t="n">
+        <v>13.571</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5578,6 +5578,35 @@
         <v>13.571</v>
       </c>
     </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B178" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="C178" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D178" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E178" t="n">
+        <v>13.884</v>
+      </c>
+      <c r="F178" t="n">
+        <v>13.681</v>
+      </c>
+      <c r="G178" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="H178" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="I178" t="n">
+        <v>13.594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5607,6 +5607,35 @@
         <v>13.594</v>
       </c>
     </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B179" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C179" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D179" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="E179" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F179" t="n">
+        <v>13.712</v>
+      </c>
+      <c r="G179" t="n">
+        <v>13.298</v>
+      </c>
+      <c r="H179" t="n">
+        <v>13.679</v>
+      </c>
+      <c r="I179" t="n">
+        <v>13.602</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5636,6 +5636,35 @@
         <v>13.602</v>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B180" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C180" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="D180" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E180" t="n">
+        <v>13.755</v>
+      </c>
+      <c r="F180" t="n">
+        <v>13.757</v>
+      </c>
+      <c r="G180" t="n">
+        <v>13.318</v>
+      </c>
+      <c r="H180" t="n">
+        <v>13.679</v>
+      </c>
+      <c r="I180" t="n">
+        <v>13.602</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5665,6 +5665,35 @@
         <v>13.602</v>
       </c>
     </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B181" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C181" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="D181" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E181" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="F181" t="n">
+        <v>13.692</v>
+      </c>
+      <c r="G181" t="n">
+        <v>13.266</v>
+      </c>
+      <c r="H181" t="n">
+        <v>13.679</v>
+      </c>
+      <c r="I181" t="n">
+        <v>13.595</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5418,19 +5418,19 @@
         <v>15.5</v>
       </c>
       <c r="E172" t="n">
-        <v>14.139</v>
+        <v>13.725</v>
       </c>
       <c r="F172" t="n">
-        <v>13.551</v>
+        <v>13.199</v>
       </c>
       <c r="G172" t="n">
-        <v>13.404</v>
+        <v>13.059</v>
       </c>
       <c r="H172" t="n">
-        <v>13.809</v>
+        <v>13.44</v>
       </c>
       <c r="I172" t="n">
-        <v>13.726</v>
+        <v>13.361</v>
       </c>
     </row>
     <row r="173">
@@ -5447,19 +5447,19 @@
         <v>15.75</v>
       </c>
       <c r="E173" t="n">
-        <v>14.382</v>
+        <v>13.952</v>
       </c>
       <c r="F173" t="n">
-        <v>13.734</v>
+        <v>13.37</v>
       </c>
       <c r="G173" t="n">
-        <v>13.576</v>
+        <v>13.22</v>
       </c>
       <c r="H173" t="n">
-        <v>13.949</v>
+        <v>13.571</v>
       </c>
       <c r="I173" t="n">
-        <v>13.87</v>
+        <v>13.496</v>
       </c>
     </row>
     <row r="174">
@@ -5476,19 +5476,19 @@
         <v>15.25</v>
       </c>
       <c r="E174" t="n">
-        <v>14.137</v>
+        <v>13.721</v>
       </c>
       <c r="F174" t="n">
-        <v>13.54</v>
+        <v>13.189</v>
       </c>
       <c r="G174" t="n">
-        <v>13.384</v>
+        <v>13.04</v>
       </c>
       <c r="H174" t="n">
-        <v>13.854</v>
+        <v>13.482</v>
       </c>
       <c r="I174" t="n">
-        <v>13.763</v>
+        <v>13.395</v>
       </c>
     </row>
     <row r="175">
@@ -5505,19 +5505,19 @@
         <v>15.75</v>
       </c>
       <c r="E175" t="n">
-        <v>13.766</v>
+        <v>13.375</v>
       </c>
       <c r="F175" t="n">
-        <v>13.35</v>
+        <v>13.01</v>
       </c>
       <c r="G175" t="n">
-        <v>13.198</v>
+        <v>12.866</v>
       </c>
       <c r="H175" t="n">
-        <v>13.66</v>
+        <v>13.3</v>
       </c>
       <c r="I175" t="n">
-        <v>13.578</v>
+        <v>13.222</v>
       </c>
     </row>
     <row r="176">
@@ -5534,19 +5534,19 @@
         <v>15.65</v>
       </c>
       <c r="E176" t="n">
-        <v>13.615</v>
+        <v>13.232</v>
       </c>
       <c r="F176" t="n">
-        <v>13.501</v>
+        <v>13.151</v>
       </c>
       <c r="G176" t="n">
-        <v>13.279</v>
+        <v>12.941</v>
       </c>
       <c r="H176" t="n">
-        <v>13.667</v>
+        <v>13.307</v>
       </c>
       <c r="I176" t="n">
-        <v>13.592</v>
+        <v>13.235</v>
       </c>
     </row>
     <row r="177">
@@ -5563,19 +5563,19 @@
         <v>15.65</v>
       </c>
       <c r="E177" t="n">
-        <v>13.564</v>
+        <v>13.185</v>
       </c>
       <c r="F177" t="n">
-        <v>13.585</v>
+        <v>13.229</v>
       </c>
       <c r="G177" t="n">
-        <v>13.28</v>
+        <v>12.942</v>
       </c>
       <c r="H177" t="n">
-        <v>13.65</v>
+        <v>13.291</v>
       </c>
       <c r="I177" t="n">
-        <v>13.571</v>
+        <v>13.216</v>
       </c>
     </row>
     <row r="178">
@@ -5592,19 +5592,19 @@
         <v>15.8</v>
       </c>
       <c r="E178" t="n">
-        <v>13.884</v>
+        <v>13.484</v>
       </c>
       <c r="F178" t="n">
-        <v>13.681</v>
+        <v>13.32</v>
       </c>
       <c r="G178" t="n">
-        <v>13.3</v>
+        <v>12.962</v>
       </c>
       <c r="H178" t="n">
-        <v>13.67</v>
+        <v>13.309</v>
       </c>
       <c r="I178" t="n">
-        <v>13.594</v>
+        <v>13.237</v>
       </c>
     </row>
     <row r="179">
@@ -5621,19 +5621,19 @@
         <v>15.85</v>
       </c>
       <c r="E179" t="n">
-        <v>13.8</v>
+        <v>13.406</v>
       </c>
       <c r="F179" t="n">
-        <v>13.712</v>
+        <v>13.349</v>
       </c>
       <c r="G179" t="n">
-        <v>13.298</v>
+        <v>12.96</v>
       </c>
       <c r="H179" t="n">
-        <v>13.679</v>
+        <v>13.318</v>
       </c>
       <c r="I179" t="n">
-        <v>13.602</v>
+        <v>13.244</v>
       </c>
     </row>
     <row r="180">
@@ -5650,19 +5650,19 @@
         <v>15.95</v>
       </c>
       <c r="E180" t="n">
-        <v>13.755</v>
+        <v>13.363</v>
       </c>
       <c r="F180" t="n">
-        <v>13.757</v>
+        <v>13.391</v>
       </c>
       <c r="G180" t="n">
-        <v>13.318</v>
+        <v>12.979</v>
       </c>
       <c r="H180" t="n">
-        <v>13.679</v>
+        <v>13.319</v>
       </c>
       <c r="I180" t="n">
-        <v>13.602</v>
+        <v>13.245</v>
       </c>
     </row>
     <row r="181">
@@ -5679,19 +5679,48 @@
         <v>15.95</v>
       </c>
       <c r="E181" t="n">
-        <v>13.75</v>
+        <v>13.359</v>
       </c>
       <c r="F181" t="n">
-        <v>13.692</v>
+        <v>13.33</v>
       </c>
       <c r="G181" t="n">
-        <v>13.266</v>
+        <v>12.93</v>
       </c>
       <c r="H181" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="I181" t="n">
+        <v>13.238</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B182" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="C182" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="D182" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E182" t="n">
+        <v>13.625</v>
+      </c>
+      <c r="F182" t="n">
+        <v>13.587</v>
+      </c>
+      <c r="G182" t="n">
+        <v>13.264</v>
+      </c>
+      <c r="H182" t="n">
         <v>13.679</v>
       </c>
-      <c r="I181" t="n">
-        <v>13.595</v>
+      <c r="I182" t="n">
+        <v>13.594</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I182"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5708,18 +5708,47 @@
         <v>15.95</v>
       </c>
       <c r="E182" t="n">
-        <v>13.625</v>
+        <v>13.242</v>
       </c>
       <c r="F182" t="n">
-        <v>13.587</v>
+        <v>13.232</v>
       </c>
       <c r="G182" t="n">
-        <v>13.264</v>
+        <v>12.928</v>
       </c>
       <c r="H182" t="n">
+        <v>13.318</v>
+      </c>
+      <c r="I182" t="n">
+        <v>13.236</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B183" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="C183" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="D183" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E183" t="n">
+        <v>13.658</v>
+      </c>
+      <c r="F183" t="n">
+        <v>13.628</v>
+      </c>
+      <c r="G183" t="n">
+        <v>13.257</v>
+      </c>
+      <c r="H183" t="n">
         <v>13.679</v>
       </c>
-      <c r="I182" t="n">
+      <c r="I183" t="n">
         <v>13.594</v>
       </c>
     </row>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -5737,19 +5737,19 @@
         <v>15.95</v>
       </c>
       <c r="E183" t="n">
-        <v>13.658</v>
+        <v>13.272</v>
       </c>
       <c r="F183" t="n">
-        <v>13.628</v>
+        <v>13.27</v>
       </c>
       <c r="G183" t="n">
-        <v>13.257</v>
+        <v>12.921</v>
       </c>
       <c r="H183" t="n">
-        <v>13.679</v>
+        <v>13.318</v>
       </c>
       <c r="I183" t="n">
-        <v>13.594</v>
+        <v>13.236</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I183"/>
+  <dimension ref="A1:I184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5752,6 +5752,35 @@
         <v>13.236</v>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B184" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="C184" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="D184" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="E184" t="n">
+        <v>14.094</v>
+      </c>
+      <c r="F184" t="n">
+        <v>13.427</v>
+      </c>
+      <c r="G184" t="n">
+        <v>13.189</v>
+      </c>
+      <c r="H184" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="I184" t="n">
+        <v>13.565</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I184"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5766,19 +5766,48 @@
         <v>15.98</v>
       </c>
       <c r="E184" t="n">
-        <v>14.094</v>
+        <v>13.682</v>
       </c>
       <c r="F184" t="n">
-        <v>13.427</v>
+        <v>13.08</v>
       </c>
       <c r="G184" t="n">
-        <v>13.189</v>
+        <v>12.859</v>
       </c>
       <c r="H184" t="n">
-        <v>13.66</v>
+        <v>13.301</v>
       </c>
       <c r="I184" t="n">
-        <v>13.565</v>
+        <v>13.21</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B185" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="C185" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="D185" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E185" t="n">
+        <v>14.019</v>
+      </c>
+      <c r="F185" t="n">
+        <v>13.326</v>
+      </c>
+      <c r="G185" t="n">
+        <v>13.179</v>
+      </c>
+      <c r="H185" t="n">
+        <v>13.649</v>
+      </c>
+      <c r="I185" t="n">
+        <v>13.554</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I185"/>
+  <dimension ref="A1:I186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5795,18 +5795,47 @@
         <v>15.9</v>
       </c>
       <c r="E185" t="n">
-        <v>14.019</v>
+        <v>13.611</v>
       </c>
       <c r="F185" t="n">
-        <v>13.326</v>
+        <v>12.985</v>
       </c>
       <c r="G185" t="n">
-        <v>13.179</v>
+        <v>12.85</v>
       </c>
       <c r="H185" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="I185" t="n">
+        <v>13.199</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B186" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="C186" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D186" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E186" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="F186" t="n">
+        <v>13.325</v>
+      </c>
+      <c r="G186" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="H186" t="n">
         <v>13.649</v>
       </c>
-      <c r="I185" t="n">
+      <c r="I186" t="n">
         <v>13.554</v>
       </c>
     </row>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -5824,19 +5824,19 @@
         <v>15.9</v>
       </c>
       <c r="E186" t="n">
-        <v>14.02</v>
+        <v>13.612</v>
       </c>
       <c r="F186" t="n">
-        <v>13.325</v>
+        <v>12.986</v>
       </c>
       <c r="G186" t="n">
-        <v>13.18</v>
+        <v>12.85</v>
       </c>
       <c r="H186" t="n">
         <v>13.649</v>
       </c>
       <c r="I186" t="n">
-        <v>13.554</v>
+        <v>13.199</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I186"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5839,6 +5839,35 @@
         <v>13.199</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B187" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="C187" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="D187" t="n">
+        <v>16</v>
+      </c>
+      <c r="E187" t="n">
+        <v>13.974</v>
+      </c>
+      <c r="F187" t="n">
+        <v>13.208</v>
+      </c>
+      <c r="G187" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="H187" t="n">
+        <v>13.647</v>
+      </c>
+      <c r="I187" t="n">
+        <v>13.554</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5868,6 +5868,35 @@
         <v>13.554</v>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B188" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="C188" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="D188" t="n">
+        <v>16</v>
+      </c>
+      <c r="E188" t="n">
+        <v>13.979</v>
+      </c>
+      <c r="F188" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="G188" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="H188" t="n">
+        <v>13.651</v>
+      </c>
+      <c r="I188" t="n">
+        <v>13.554</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5833,7 +5833,7 @@
         <v>12.85</v>
       </c>
       <c r="H186" t="n">
-        <v>13.649</v>
+        <v>13.291</v>
       </c>
       <c r="I186" t="n">
         <v>13.199</v>
@@ -5853,19 +5853,19 @@
         <v>16</v>
       </c>
       <c r="E187" t="n">
-        <v>13.974</v>
+        <v>13.568</v>
       </c>
       <c r="F187" t="n">
-        <v>13.208</v>
+        <v>12.874</v>
       </c>
       <c r="G187" t="n">
-        <v>13.18</v>
+        <v>12.851</v>
       </c>
       <c r="H187" t="n">
-        <v>13.647</v>
+        <v>13.289</v>
       </c>
       <c r="I187" t="n">
-        <v>13.554</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="188">
@@ -5882,19 +5882,48 @@
         <v>16</v>
       </c>
       <c r="E188" t="n">
-        <v>13.979</v>
+        <v>13.573</v>
       </c>
       <c r="F188" t="n">
-        <v>13.25</v>
+        <v>12.914</v>
       </c>
       <c r="G188" t="n">
-        <v>13.18</v>
+        <v>12.851</v>
       </c>
       <c r="H188" t="n">
-        <v>13.651</v>
+        <v>13.293</v>
       </c>
       <c r="I188" t="n">
-        <v>13.554</v>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B189" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C189" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="D189" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E189" t="n">
+        <v>14.002</v>
+      </c>
+      <c r="F189" t="n">
+        <v>13.255</v>
+      </c>
+      <c r="G189" t="n">
+        <v>13.106</v>
+      </c>
+      <c r="H189" t="n">
+        <v>13.647</v>
+      </c>
+      <c r="I189" t="n">
+        <v>13.549</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5911,19 +5911,48 @@
         <v>15.95</v>
       </c>
       <c r="E189" t="n">
-        <v>14.002</v>
+        <v>13.596</v>
       </c>
       <c r="F189" t="n">
-        <v>13.255</v>
+        <v>12.917</v>
       </c>
       <c r="G189" t="n">
-        <v>13.106</v>
+        <v>12.781</v>
       </c>
       <c r="H189" t="n">
-        <v>13.647</v>
+        <v>13.289</v>
       </c>
       <c r="I189" t="n">
-        <v>13.549</v>
+        <v>13.195</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B190" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="C190" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D190" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E190" t="n">
+        <v>13.908</v>
+      </c>
+      <c r="F190" t="n">
+        <v>13.056</v>
+      </c>
+      <c r="G190" t="n">
+        <v>12.819</v>
+      </c>
+      <c r="H190" t="n">
+        <v>13.535</v>
+      </c>
+      <c r="I190" t="n">
+        <v>13.407</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5940,19 +5940,48 @@
         <v>15.95</v>
       </c>
       <c r="E190" t="n">
-        <v>13.908</v>
+        <v>13.508</v>
       </c>
       <c r="F190" t="n">
-        <v>13.056</v>
+        <v>12.732</v>
       </c>
       <c r="G190" t="n">
-        <v>12.819</v>
+        <v>12.51</v>
       </c>
       <c r="H190" t="n">
-        <v>13.535</v>
+        <v>13.184</v>
       </c>
       <c r="I190" t="n">
-        <v>13.407</v>
+        <v>13.061</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B191" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="C191" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D191" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E191" t="n">
+        <v>13.953</v>
+      </c>
+      <c r="F191" t="n">
+        <v>13.172</v>
+      </c>
+      <c r="G191" t="n">
+        <v>12.828</v>
+      </c>
+      <c r="H191" t="n">
+        <v>13.594</v>
+      </c>
+      <c r="I191" t="n">
+        <v>13.472</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -5969,19 +5969,19 @@
         <v>15.95</v>
       </c>
       <c r="E191" t="n">
-        <v>13.953</v>
+        <v>13.548</v>
       </c>
       <c r="F191" t="n">
-        <v>13.172</v>
+        <v>12.84</v>
       </c>
       <c r="G191" t="n">
-        <v>12.828</v>
+        <v>12.519</v>
       </c>
       <c r="H191" t="n">
-        <v>13.594</v>
+        <v>13.238</v>
       </c>
       <c r="I191" t="n">
-        <v>13.472</v>
+        <v>13.121</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -5969,19 +5969,19 @@
         <v>15.95</v>
       </c>
       <c r="E191" t="n">
-        <v>13.548</v>
+        <v>13.953</v>
       </c>
       <c r="F191" t="n">
-        <v>12.84</v>
+        <v>13.172</v>
       </c>
       <c r="G191" t="n">
-        <v>12.519</v>
+        <v>12.828</v>
       </c>
       <c r="H191" t="n">
-        <v>13.238</v>
+        <v>13.594</v>
       </c>
       <c r="I191" t="n">
-        <v>13.121</v>
+        <v>13.472</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5969,19 +5969,48 @@
         <v>15.95</v>
       </c>
       <c r="E191" t="n">
-        <v>13.953</v>
+        <v>13.548</v>
       </c>
       <c r="F191" t="n">
-        <v>13.172</v>
+        <v>12.84</v>
       </c>
       <c r="G191" t="n">
-        <v>12.828</v>
+        <v>12.519</v>
       </c>
       <c r="H191" t="n">
-        <v>13.594</v>
+        <v>13.238</v>
       </c>
       <c r="I191" t="n">
-        <v>13.472</v>
+        <v>13.121</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B192" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="C192" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D192" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E192" t="n">
+        <v>13.991</v>
+      </c>
+      <c r="F192" t="n">
+        <v>13.269</v>
+      </c>
+      <c r="G192" t="n">
+        <v>12.861</v>
+      </c>
+      <c r="H192" t="n">
+        <v>13.604</v>
+      </c>
+      <c r="I192" t="n">
+        <v>13.477</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6013,6 +6013,35 @@
         <v>13.477</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B193" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="C193" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D193" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E193" t="n">
+        <v>13.991</v>
+      </c>
+      <c r="F193" t="n">
+        <v>13.278</v>
+      </c>
+      <c r="G193" t="n">
+        <v>12.861</v>
+      </c>
+      <c r="H193" t="n">
+        <v>13.612</v>
+      </c>
+      <c r="I193" t="n">
+        <v>13.484</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6042,6 +6042,35 @@
         <v>13.484</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B194" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="C194" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="D194" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E194" t="n">
+        <v>13.925</v>
+      </c>
+      <c r="F194" t="n">
+        <v>13.211</v>
+      </c>
+      <c r="G194" t="n">
+        <v>12.863</v>
+      </c>
+      <c r="H194" t="n">
+        <v>13.601</v>
+      </c>
+      <c r="I194" t="n">
+        <v>13.477</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5998,19 +5998,19 @@
         <v>15.95</v>
       </c>
       <c r="E192" t="n">
-        <v>13.991</v>
+        <v>13.585</v>
       </c>
       <c r="F192" t="n">
-        <v>13.269</v>
+        <v>12.93</v>
       </c>
       <c r="G192" t="n">
-        <v>12.861</v>
+        <v>12.55</v>
       </c>
       <c r="H192" t="n">
-        <v>13.604</v>
+        <v>13.248</v>
       </c>
       <c r="I192" t="n">
-        <v>13.477</v>
+        <v>13.127</v>
       </c>
     </row>
     <row r="193">
@@ -6027,19 +6027,19 @@
         <v>15.95</v>
       </c>
       <c r="E193" t="n">
-        <v>13.991</v>
+        <v>13.585</v>
       </c>
       <c r="F193" t="n">
-        <v>13.278</v>
+        <v>12.939</v>
       </c>
       <c r="G193" t="n">
-        <v>12.861</v>
+        <v>12.55</v>
       </c>
       <c r="H193" t="n">
-        <v>13.612</v>
+        <v>13.256</v>
       </c>
       <c r="I193" t="n">
-        <v>13.484</v>
+        <v>13.134</v>
       </c>
     </row>
     <row r="194">
@@ -6056,18 +6056,47 @@
         <v>15.9</v>
       </c>
       <c r="E194" t="n">
-        <v>13.925</v>
+        <v>13.523</v>
       </c>
       <c r="F194" t="n">
-        <v>13.211</v>
+        <v>12.876</v>
       </c>
       <c r="G194" t="n">
-        <v>12.863</v>
+        <v>12.552</v>
       </c>
       <c r="H194" t="n">
-        <v>13.601</v>
+        <v>13.245</v>
       </c>
       <c r="I194" t="n">
+        <v>13.127</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B195" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="C195" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="D195" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E195" t="n">
+        <v>13.931</v>
+      </c>
+      <c r="F195" t="n">
+        <v>13.269</v>
+      </c>
+      <c r="G195" t="n">
+        <v>12.884</v>
+      </c>
+      <c r="H195" t="n">
+        <v>13.603</v>
+      </c>
+      <c r="I195" t="n">
         <v>13.477</v>
       </c>
     </row>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -6085,19 +6085,19 @@
         <v>15.95</v>
       </c>
       <c r="E195" t="n">
-        <v>13.931</v>
+        <v>13.528</v>
       </c>
       <c r="F195" t="n">
-        <v>13.269</v>
+        <v>12.931</v>
       </c>
       <c r="G195" t="n">
-        <v>12.884</v>
+        <v>12.572</v>
       </c>
       <c r="H195" t="n">
-        <v>13.603</v>
+        <v>13.247</v>
       </c>
       <c r="I195" t="n">
-        <v>13.477</v>
+        <v>13.127</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6100,6 +6100,35 @@
         <v>13.127</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B196" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="C196" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D196" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E196" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="F196" t="n">
+        <v>13.403</v>
+      </c>
+      <c r="G196" t="n">
+        <v>12.917</v>
+      </c>
+      <c r="H196" t="n">
+        <v>13.592</v>
+      </c>
+      <c r="I196" t="n">
+        <v>13.469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6114,18 +6114,47 @@
         <v>15.95</v>
       </c>
       <c r="E196" t="n">
-        <v>13.99</v>
+        <v>13.583</v>
       </c>
       <c r="F196" t="n">
-        <v>13.403</v>
+        <v>13.056</v>
       </c>
       <c r="G196" t="n">
-        <v>12.917</v>
+        <v>12.602</v>
       </c>
       <c r="H196" t="n">
+        <v>13.236</v>
+      </c>
+      <c r="I196" t="n">
+        <v>13.119</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B197" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="C197" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D197" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E197" t="n">
+        <v>13.999</v>
+      </c>
+      <c r="F197" t="n">
+        <v>13.384</v>
+      </c>
+      <c r="G197" t="n">
+        <v>12.916</v>
+      </c>
+      <c r="H197" t="n">
         <v>13.592</v>
       </c>
-      <c r="I196" t="n">
+      <c r="I197" t="n">
         <v>13.469</v>
       </c>
     </row>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I197"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6158,6 +6158,35 @@
         <v>13.469</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B198" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C198" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D198" t="n">
+        <v>16</v>
+      </c>
+      <c r="E198" t="n">
+        <v>14.014</v>
+      </c>
+      <c r="F198" t="n">
+        <v>13.371</v>
+      </c>
+      <c r="G198" t="n">
+        <v>12.917</v>
+      </c>
+      <c r="H198" t="n">
+        <v>13.592</v>
+      </c>
+      <c r="I198" t="n">
+        <v>13.467</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I198"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6187,6 +6187,64 @@
         <v>13.467</v>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B199" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C199" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D199" t="n">
+        <v>16</v>
+      </c>
+      <c r="E199" t="n">
+        <v>14.068</v>
+      </c>
+      <c r="F199" t="n">
+        <v>13.495</v>
+      </c>
+      <c r="G199" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="H199" t="n">
+        <v>13.602</v>
+      </c>
+      <c r="I199" t="n">
+        <v>13.479</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B200" t="n">
+        <v>16</v>
+      </c>
+      <c r="C200" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D200" t="n">
+        <v>16</v>
+      </c>
+      <c r="E200" t="n">
+        <v>14.116</v>
+      </c>
+      <c r="F200" t="n">
+        <v>13.493</v>
+      </c>
+      <c r="G200" t="n">
+        <v>12.941</v>
+      </c>
+      <c r="H200" t="n">
+        <v>13.602</v>
+      </c>
+      <c r="I200" t="n">
+        <v>13.477</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6245,6 +6245,35 @@
         <v>13.477</v>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B201" t="n">
+        <v>16</v>
+      </c>
+      <c r="C201" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D201" t="n">
+        <v>16</v>
+      </c>
+      <c r="E201" t="n">
+        <v>14.149</v>
+      </c>
+      <c r="F201" t="n">
+        <v>13.578</v>
+      </c>
+      <c r="G201" t="n">
+        <v>13.036</v>
+      </c>
+      <c r="H201" t="n">
+        <v>13.651</v>
+      </c>
+      <c r="I201" t="n">
+        <v>13.532</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Pakistan.xlsx
+++ b/Bonds_Pakistan.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,6 +6274,64 @@
         <v>13.532</v>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B202" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="C202" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D202" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E202" t="n">
+        <v>14.186</v>
+      </c>
+      <c r="F202" t="n">
+        <v>13.587</v>
+      </c>
+      <c r="G202" t="n">
+        <v>13.057</v>
+      </c>
+      <c r="H202" t="n">
+        <v>13.649</v>
+      </c>
+      <c r="I202" t="n">
+        <v>13.532</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B203" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="C203" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D203" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E203" t="n">
+        <v>14.197</v>
+      </c>
+      <c r="F203" t="n">
+        <v>13.587</v>
+      </c>
+      <c r="G203" t="n">
+        <v>13.069</v>
+      </c>
+      <c r="H203" t="n">
+        <v>13.644</v>
+      </c>
+      <c r="I203" t="n">
+        <v>13.534</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
